--- a/application/tests/import/test_new_data.xlsx
+++ b/application/tests/import/test_new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/umpire/application/tests/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156885DD-16D7-5D46-9A80-14A99A9E5C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F376407-BE52-E64D-9BC2-D57A33C2C38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Season</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Goal Umpire 2</t>
-  </si>
-  <si>
-    <t>31/3/2018</t>
   </si>
   <si>
     <t>2018 CDFNL Bendigo Bank Seniors</t>
@@ -257,11 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,50 +727,50 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4">
+        <v>43190</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -782,47 +780,47 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3" s="4">
+        <v>43190</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -832,50 +830,50 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4" s="4">
+        <v>43190</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -885,50 +883,50 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5" s="4">
+        <v>43190</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/application/tests/import/test_new_data.xlsx
+++ b/application/tests/import/test_new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/umpire/application/tests/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F376407-BE52-E64D-9BC2-D57A33C2C38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FEE59-4B2D-1C4F-8930-B1A75A04E4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>David House</t>
   </si>
   <si>
-    <t>Lorne NEW TEAM</t>
-  </si>
-  <si>
     <t>AFL Barwon - 2018 Some New Competition</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Some new club</t>
+  </si>
+  <si>
+    <t>Lorne NEW TEAM 2</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -834,7 +834,7 @@
         <v>43190</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -887,7 +887,7 @@
         <v>43190</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -899,7 +899,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>46</v>
